--- a/REGULAR/OJT/LUNA, FERNANDO.xlsx
+++ b/REGULAR/OJT/LUNA, FERNANDO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="153">
   <si>
     <t>PERIOD</t>
   </si>
@@ -498,6 +498,9 @@
   </si>
   <si>
     <t>4/26,27/2023</t>
+  </si>
+  <si>
+    <t>8/15-17/2023</t>
   </si>
 </sst>
 </file>
@@ -1378,7 +1381,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1421,7 +1424,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1485,7 +1488,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1545,7 +1548,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1611,7 +1614,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1674,7 +1677,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1772,7 +1775,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1831,7 +1834,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1896,7 +1899,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1939,7 +1942,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2014,7 +2017,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2200,7 +2203,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2266,7 +2269,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2324,7 +2327,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2390,7 +2393,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2446,7 +2449,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2521,7 +2524,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2564,7 +2567,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2630,7 +2633,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2686,7 +2689,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2784,7 +2787,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2847,7 +2850,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2913,7 +2916,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K351" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K355" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3291,12 +3294,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K351"/>
+  <dimension ref="A2:K355"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <pane ySplit="1725" topLeftCell="A331" activePane="bottomLeft"/>
       <selection activeCell="A7" sqref="A7"/>
-      <selection pane="bottomLeft" activeCell="B351" sqref="B351"/>
+      <selection pane="bottomLeft" activeCell="I354" sqref="I354"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3453,7 +3456,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>219.726</v>
+        <v>223.476</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3463,7 +3466,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>335</v>
+        <v>335.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -10868,18 +10871,102 @@
         <v>45047</v>
       </c>
       <c r="B351" s="20"/>
-      <c r="C351" s="13"/>
+      <c r="C351" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D351" s="38"/>
       <c r="E351" s="9"/>
       <c r="F351" s="20"/>
-      <c r="G351" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G351" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H351" s="38"/>
       <c r="I351" s="9"/>
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
+    </row>
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A352" s="39">
+        <v>45078</v>
+      </c>
+      <c r="B352" s="20"/>
+      <c r="C352" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D352" s="38"/>
+      <c r="E352" s="9"/>
+      <c r="F352" s="20"/>
+      <c r="G352" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H352" s="38"/>
+      <c r="I352" s="9"/>
+      <c r="J352" s="11"/>
+      <c r="K352" s="20"/>
+    </row>
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A353" s="39">
+        <v>45108</v>
+      </c>
+      <c r="B353" s="20"/>
+      <c r="C353" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D353" s="38"/>
+      <c r="E353" s="9"/>
+      <c r="F353" s="20"/>
+      <c r="G353" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H353" s="38"/>
+      <c r="I353" s="9"/>
+      <c r="J353" s="11"/>
+      <c r="K353" s="20"/>
+    </row>
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A354" s="39">
+        <v>45139</v>
+      </c>
+      <c r="B354" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="C354" s="13"/>
+      <c r="D354" s="38"/>
+      <c r="E354" s="9"/>
+      <c r="F354" s="20"/>
+      <c r="G354" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H354" s="38">
+        <v>3</v>
+      </c>
+      <c r="I354" s="9"/>
+      <c r="J354" s="11"/>
+      <c r="K354" s="20" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A355" s="39">
+        <v>45170</v>
+      </c>
+      <c r="B355" s="20"/>
+      <c r="C355" s="13"/>
+      <c r="D355" s="38"/>
+      <c r="E355" s="9"/>
+      <c r="F355" s="20"/>
+      <c r="G355" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H355" s="38"/>
+      <c r="I355" s="9"/>
+      <c r="J355" s="11"/>
+      <c r="K355" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/REGULAR/OJT/LUNA, FERNANDO.xlsx
+++ b/REGULAR/OJT/LUNA, FERNANDO.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="159">
   <si>
     <t>PERIOD</t>
   </si>
@@ -516,6 +516,9 @@
   </si>
   <si>
     <t>VL(7-0-0)</t>
+  </si>
+  <si>
+    <t>01/11,12/2024</t>
   </si>
 </sst>
 </file>
@@ -1402,7 +1405,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1445,7 +1448,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1509,7 +1512,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1569,7 +1572,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1635,7 +1638,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1698,7 +1701,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1796,7 +1799,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1855,7 +1858,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1920,7 +1923,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1963,7 +1966,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2038,7 +2041,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2224,7 +2227,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2290,7 +2293,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2348,7 +2351,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2414,7 +2417,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2470,7 +2473,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2545,7 +2548,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2588,7 +2591,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2654,7 +2657,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2710,7 +2713,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2808,7 +2811,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2871,7 +2874,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3320,7 +3323,7 @@
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <pane ySplit="1725" topLeftCell="A340" activePane="bottomLeft"/>
       <selection activeCell="A7" sqref="A7"/>
-      <selection pane="bottomLeft" activeCell="E363" sqref="E363"/>
+      <selection pane="bottomLeft" activeCell="C361" sqref="C361"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3477,7 +3480,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>221.476</v>
+        <v>222.726</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3487,7 +3490,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>336.75</v>
+        <v>336</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -11072,13 +11075,15 @@
         <v>45261</v>
       </c>
       <c r="B359" s="20"/>
-      <c r="C359" s="13"/>
+      <c r="C359" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D359" s="38"/>
       <c r="E359" s="9"/>
       <c r="F359" s="20"/>
-      <c r="G359" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G359" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H359" s="38"/>
       <c r="I359" s="9"/>
@@ -11107,7 +11112,9 @@
       <c r="A361" s="39">
         <v>45292</v>
       </c>
-      <c r="B361" s="20"/>
+      <c r="B361" s="20" t="s">
+        <v>150</v>
+      </c>
       <c r="C361" s="13"/>
       <c r="D361" s="38"/>
       <c r="E361" s="9"/>
@@ -11116,10 +11123,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H361" s="38"/>
+      <c r="H361" s="38">
+        <v>2</v>
+      </c>
       <c r="I361" s="9"/>
       <c r="J361" s="11"/>
-      <c r="K361" s="20"/>
+      <c r="K361" s="20" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="39">
